--- a/MainTop/11.10.2024/Макс_печать.xlsx
+++ b/MainTop/11.10.2024/Макс_печать.xlsx
@@ -545,7 +545,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I122" activeCellId="0" sqref="I122"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/MainTop/11.10.2024/Макс_печать.xlsx
+++ b/MainTop/11.10.2024/Макс_печать.xlsx
@@ -463,12 +463,30 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -512,7 +530,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,7 +539,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -534,6 +564,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -544,13 +634,13 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A95" activeCellId="0" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
@@ -590,7 +680,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -622,7 +712,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -654,7 +744,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -686,7 +776,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -718,7 +808,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -750,7 +840,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -782,7 +872,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -814,7 +904,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -846,7 +936,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -878,7 +968,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -910,7 +1000,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -942,7 +1032,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -974,7 +1064,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -1006,7 +1096,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -1038,7 +1128,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -1070,7 +1160,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -1102,7 +1192,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -1134,7 +1224,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -1166,7 +1256,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -1198,7 +1288,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -1230,7 +1320,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -1262,7 +1352,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -1294,7 +1384,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -1326,7 +1416,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -1358,7 +1448,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="0" t="n">
@@ -1390,7 +1480,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -1422,7 +1512,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="0" t="n">
@@ -1454,7 +1544,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="0" t="n">
@@ -1486,7 +1576,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="0" t="n">
@@ -1518,7 +1608,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -1550,7 +1640,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="0" t="n">
@@ -1582,7 +1672,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="0" t="n">
@@ -1614,7 +1704,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="0" t="n">
@@ -1646,7 +1736,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="0" t="n">
@@ -1678,7 +1768,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="0" t="n">
@@ -1710,7 +1800,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="0" t="n">
@@ -1742,7 +1832,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="0" t="n">
@@ -1774,7 +1864,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="0" t="n">
@@ -1806,7 +1896,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="0" t="n">
@@ -1838,7 +1928,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="0" t="n">
@@ -1870,7 +1960,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B42" s="0" t="n">
@@ -1902,7 +1992,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B43" s="0" t="n">
@@ -1934,7 +2024,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="0" t="n">
@@ -1970,7 +2060,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="0" t="n">
@@ -2000,13 +2090,13 @@
       <c r="K45" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L45" s="2" t="n">
+      <c r="L45" s="4" t="n">
         <f aca="false">I45/4</f>
         <v>4</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="0" t="n">
@@ -2036,13 +2126,13 @@
       <c r="K46" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L46" s="2" t="n">
+      <c r="L46" s="4" t="n">
         <f aca="false">I46/4</f>
         <v>4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="0" t="n">
@@ -2072,13 +2162,13 @@
       <c r="K47" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L47" s="2" t="n">
+      <c r="L47" s="4" t="n">
         <f aca="false">I47/4</f>
         <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="0" t="n">
@@ -2108,13 +2198,13 @@
       <c r="K48" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L48" s="2" t="n">
+      <c r="L48" s="4" t="n">
         <f aca="false">I48/4</f>
         <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="0" t="n">
@@ -2144,13 +2234,13 @@
       <c r="K49" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L49" s="2" t="n">
+      <c r="L49" s="4" t="n">
         <f aca="false">I49/4</f>
         <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="0" t="n">
@@ -2180,13 +2270,13 @@
       <c r="K50" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L50" s="2" t="n">
+      <c r="L50" s="4" t="n">
         <f aca="false">I50/4</f>
         <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="0" t="n">
@@ -2216,13 +2306,13 @@
       <c r="K51" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L51" s="4" t="n">
         <f aca="false">I51/4</f>
         <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="0" t="n">
@@ -2252,13 +2342,13 @@
       <c r="K52" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L52" s="2" t="n">
+      <c r="L52" s="4" t="n">
         <f aca="false">I52/4</f>
         <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="0" t="n">
@@ -2288,13 +2378,13 @@
       <c r="K53" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L53" s="2" t="n">
+      <c r="L53" s="4" t="n">
         <f aca="false">I53/4</f>
         <v>2</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B54" s="0" t="n">
@@ -2324,13 +2414,13 @@
       <c r="K54" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L54" s="2" t="n">
+      <c r="L54" s="4" t="n">
         <f aca="false">I54/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B55" s="0" t="n">
@@ -2360,13 +2450,13 @@
       <c r="K55" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L55" s="2" t="n">
+      <c r="L55" s="4" t="n">
         <f aca="false">I55/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B56" s="0" t="n">
@@ -2396,13 +2486,13 @@
       <c r="K56" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L56" s="2" t="n">
+      <c r="L56" s="4" t="n">
         <f aca="false">I56/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="0" t="n">
@@ -2432,13 +2522,13 @@
       <c r="K57" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L57" s="2" t="n">
+      <c r="L57" s="4" t="n">
         <f aca="false">I57/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="0" t="n">
@@ -2468,13 +2558,13 @@
       <c r="K58" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L58" s="2" t="n">
+      <c r="L58" s="4" t="n">
         <f aca="false">I58/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="0" t="n">
@@ -2504,13 +2594,13 @@
       <c r="K59" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L59" s="2" t="n">
+      <c r="L59" s="4" t="n">
         <f aca="false">I59/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="0" t="n">
@@ -2540,13 +2630,13 @@
       <c r="K60" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L60" s="2" t="n">
+      <c r="L60" s="4" t="n">
         <f aca="false">I60/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B61" s="0" t="n">
@@ -2576,13 +2666,13 @@
       <c r="K61" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L61" s="2" t="n">
+      <c r="L61" s="4" t="n">
         <f aca="false">I61/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B62" s="0" t="n">
@@ -2612,13 +2702,13 @@
       <c r="K62" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L62" s="2" t="n">
+      <c r="L62" s="4" t="n">
         <f aca="false">I62/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="0" t="n">
@@ -2648,13 +2738,13 @@
       <c r="K63" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L63" s="2" t="n">
+      <c r="L63" s="4" t="n">
         <f aca="false">I63/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="0" t="n">
@@ -2684,13 +2774,13 @@
       <c r="K64" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L64" s="2" t="n">
+      <c r="L64" s="4" t="n">
         <f aca="false">I64/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B65" s="0" t="n">
@@ -2720,13 +2810,13 @@
       <c r="K65" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L65" s="2" t="n">
+      <c r="L65" s="4" t="n">
         <f aca="false">I65/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="0" t="n">
@@ -2756,13 +2846,13 @@
       <c r="K66" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L66" s="2" t="n">
+      <c r="L66" s="4" t="n">
         <f aca="false">I66/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B67" s="0" t="n">
@@ -2792,13 +2882,13 @@
       <c r="K67" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L67" s="2" t="n">
+      <c r="L67" s="4" t="n">
         <f aca="false">I67/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B68" s="0" t="n">
@@ -2828,13 +2918,13 @@
       <c r="K68" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L68" s="2" t="n">
+      <c r="L68" s="4" t="n">
         <f aca="false">I68/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B69" s="0" t="n">
@@ -2864,13 +2954,13 @@
       <c r="K69" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L69" s="2" t="n">
+      <c r="L69" s="4" t="n">
         <f aca="false">I69/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B70" s="0" t="n">
@@ -2894,19 +2984,19 @@
       <c r="H70" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I70" s="2" t="n">
+      <c r="I70" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K70" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L70" s="2" t="n">
+      <c r="L70" s="4" t="n">
         <f aca="false">I70/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B71" s="0" t="n">
@@ -2930,19 +3020,19 @@
       <c r="H71" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I71" s="2" t="n">
+      <c r="I71" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K71" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L71" s="2" t="n">
+      <c r="L71" s="4" t="n">
         <f aca="false">I71/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B72" s="0" t="n">
@@ -2966,19 +3056,19 @@
       <c r="H72" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I72" s="2" t="n">
+      <c r="I72" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L72" s="2" t="n">
+      <c r="L72" s="4" t="n">
         <f aca="false">I72/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B73" s="0" t="n">
@@ -3002,19 +3092,19 @@
       <c r="H73" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I73" s="2" t="n">
+      <c r="I73" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K73" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L73" s="2" t="n">
+      <c r="L73" s="4" t="n">
         <f aca="false">I73/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B74" s="0" t="n">
@@ -3038,19 +3128,19 @@
       <c r="H74" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I74" s="2" t="n">
+      <c r="I74" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K74" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L74" s="2" t="n">
+      <c r="L74" s="4" t="n">
         <f aca="false">I74/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B75" s="0" t="n">
@@ -3074,19 +3164,19 @@
       <c r="H75" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I75" s="2" t="n">
+      <c r="I75" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K75" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L75" s="2" t="n">
+      <c r="L75" s="4" t="n">
         <f aca="false">I75/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B76" s="0" t="n">
@@ -3110,19 +3200,19 @@
       <c r="H76" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I76" s="2" t="n">
+      <c r="I76" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K76" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L76" s="2" t="n">
+      <c r="L76" s="4" t="n">
         <f aca="false">I76/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B77" s="0" t="n">
@@ -3146,19 +3236,19 @@
       <c r="H77" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I77" s="2" t="n">
+      <c r="I77" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K77" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L77" s="2" t="n">
+      <c r="L77" s="4" t="n">
         <f aca="false">I77/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B78" s="0" t="n">
@@ -3182,19 +3272,19 @@
       <c r="H78" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I78" s="2" t="n">
+      <c r="I78" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K78" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L78" s="2" t="n">
+      <c r="L78" s="4" t="n">
         <f aca="false">I78/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B79" s="0" t="n">
@@ -3218,19 +3308,19 @@
       <c r="H79" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I79" s="2" t="n">
+      <c r="I79" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K79" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L79" s="2" t="n">
+      <c r="L79" s="4" t="n">
         <f aca="false">I79/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B80" s="0" t="n">
@@ -3254,19 +3344,19 @@
       <c r="H80" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I80" s="2" t="n">
+      <c r="I80" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L80" s="2" t="n">
+      <c r="L80" s="4" t="n">
         <f aca="false">I80/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B81" s="0" t="n">
@@ -3290,19 +3380,19 @@
       <c r="H81" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="I81" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K81" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L81" s="2" t="n">
+      <c r="L81" s="4" t="n">
         <f aca="false">I81/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B82" s="0" t="n">
@@ -3326,19 +3416,19 @@
       <c r="H82" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I82" s="2" t="n">
+      <c r="I82" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K82" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L82" s="2" t="n">
+      <c r="L82" s="4" t="n">
         <f aca="false">I82/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B83" s="0" t="n">
@@ -3362,19 +3452,19 @@
       <c r="H83" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I83" s="2" t="n">
+      <c r="I83" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K83" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L83" s="2" t="n">
+      <c r="L83" s="4" t="n">
         <f aca="false">I83/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B84" s="0" t="n">
@@ -3398,19 +3488,19 @@
       <c r="H84" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I84" s="2" t="n">
+      <c r="I84" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K84" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L84" s="2" t="n">
+      <c r="L84" s="4" t="n">
         <f aca="false">I84/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B85" s="0" t="n">
@@ -3434,19 +3524,19 @@
       <c r="H85" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I85" s="2" t="n">
+      <c r="I85" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K85" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L85" s="2" t="n">
+      <c r="L85" s="4" t="n">
         <f aca="false">I85/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B86" s="0" t="n">
@@ -3470,19 +3560,19 @@
       <c r="H86" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I86" s="2" t="n">
+      <c r="I86" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K86" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L86" s="2" t="n">
+      <c r="L86" s="4" t="n">
         <f aca="false">I86/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B87" s="0" t="n">
@@ -3506,19 +3596,19 @@
       <c r="H87" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I87" s="2" t="n">
+      <c r="I87" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K87" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L87" s="2" t="n">
+      <c r="L87" s="4" t="n">
         <f aca="false">I87/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="0" t="n">
@@ -3542,19 +3632,19 @@
       <c r="H88" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I88" s="2" t="n">
+      <c r="I88" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K88" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L88" s="2" t="n">
+      <c r="L88" s="4" t="n">
         <f aca="false">I88/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B89" s="0" t="n">
@@ -3578,19 +3668,19 @@
       <c r="H89" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I89" s="2" t="n">
+      <c r="I89" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K89" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L89" s="2" t="n">
+      <c r="L89" s="4" t="n">
         <f aca="false">I89/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B90" s="0" t="n">
@@ -3614,19 +3704,19 @@
       <c r="H90" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I90" s="2" t="n">
+      <c r="I90" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K90" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L90" s="2" t="n">
+      <c r="L90" s="4" t="n">
         <f aca="false">I90/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B91" s="0" t="n">
@@ -3650,19 +3740,19 @@
       <c r="H91" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I91" s="2" t="n">
+      <c r="I91" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K91" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L91" s="2" t="n">
+      <c r="L91" s="4" t="n">
         <f aca="false">I91/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B92" s="0" t="n">
@@ -3686,19 +3776,19 @@
       <c r="H92" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I92" s="2" t="n">
+      <c r="I92" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K92" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L92" s="2" t="n">
+      <c r="L92" s="4" t="n">
         <f aca="false">I92/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B93" s="0" t="n">
@@ -3722,19 +3812,19 @@
       <c r="H93" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I93" s="2" t="n">
+      <c r="I93" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K93" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L93" s="2" t="n">
+      <c r="L93" s="4" t="n">
         <f aca="false">I93/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B94" s="0" t="n">
@@ -3758,19 +3848,19 @@
       <c r="H94" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I94" s="2" t="n">
+      <c r="I94" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K94" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L94" s="2" t="n">
+      <c r="L94" s="4" t="n">
         <f aca="false">I94/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B95" s="0" t="n">
@@ -3794,19 +3884,19 @@
       <c r="H95" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I95" s="2" t="n">
+      <c r="I95" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K95" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L95" s="2" t="n">
+      <c r="L95" s="4" t="n">
         <f aca="false">I95/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B96" s="0" t="n">
@@ -3830,19 +3920,19 @@
       <c r="H96" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I96" s="2" t="n">
+      <c r="I96" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K96" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L96" s="2" t="n">
+      <c r="L96" s="4" t="n">
         <f aca="false">I96/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B97" s="0" t="n">
@@ -3866,19 +3956,19 @@
       <c r="H97" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I97" s="2" t="n">
+      <c r="I97" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K97" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L97" s="2" t="n">
+      <c r="L97" s="4" t="n">
         <f aca="false">I97/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B98" s="0" t="n">
@@ -3902,19 +3992,19 @@
       <c r="H98" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I98" s="2" t="n">
+      <c r="I98" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K98" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L98" s="2" t="n">
+      <c r="L98" s="4" t="n">
         <f aca="false">I98/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B99" s="0" t="n">
@@ -3938,19 +4028,19 @@
       <c r="H99" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I99" s="2" t="n">
+      <c r="I99" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K99" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L99" s="2" t="n">
+      <c r="L99" s="4" t="n">
         <f aca="false">I99/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B100" s="0" t="n">
@@ -3974,19 +4064,19 @@
       <c r="H100" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I100" s="2" t="n">
+      <c r="I100" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K100" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L100" s="2" t="n">
+      <c r="L100" s="4" t="n">
         <f aca="false">I100/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B101" s="0" t="n">
@@ -4010,19 +4100,19 @@
       <c r="H101" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I101" s="2" t="n">
+      <c r="I101" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K101" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L101" s="2" t="n">
+      <c r="L101" s="4" t="n">
         <f aca="false">I101/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B102" s="0" t="n">
@@ -4046,19 +4136,19 @@
       <c r="H102" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I102" s="2" t="n">
+      <c r="I102" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K102" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L102" s="2" t="n">
+      <c r="L102" s="4" t="n">
         <f aca="false">I102/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B103" s="0" t="n">
@@ -4082,19 +4172,19 @@
       <c r="H103" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I103" s="2" t="n">
+      <c r="I103" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K103" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L103" s="2" t="n">
+      <c r="L103" s="4" t="n">
         <f aca="false">I103/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B104" s="0" t="n">
@@ -4118,19 +4208,19 @@
       <c r="H104" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I104" s="2" t="n">
+      <c r="I104" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K104" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L104" s="2" t="n">
+      <c r="L104" s="4" t="n">
         <f aca="false">I104/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B105" s="0" t="n">
@@ -4154,19 +4244,19 @@
       <c r="H105" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I105" s="2" t="n">
+      <c r="I105" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K105" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L105" s="2" t="n">
+      <c r="L105" s="4" t="n">
         <f aca="false">I105/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B106" s="0" t="n">
@@ -4190,19 +4280,19 @@
       <c r="H106" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I106" s="2" t="n">
+      <c r="I106" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K106" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L106" s="2" t="n">
+      <c r="L106" s="4" t="n">
         <f aca="false">I106/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B107" s="0" t="n">
@@ -4226,19 +4316,19 @@
       <c r="H107" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I107" s="2" t="n">
+      <c r="I107" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K107" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L107" s="2" t="n">
+      <c r="L107" s="4" t="n">
         <f aca="false">I107/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B108" s="0" t="n">
@@ -4262,19 +4352,19 @@
       <c r="H108" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I108" s="2" t="n">
+      <c r="I108" s="4" t="n">
         <v>4</v>
       </c>
       <c r="K108" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="L108" s="2" t="n">
+      <c r="L108" s="4" t="n">
         <f aca="false">I108/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B109" s="0" t="n">
@@ -4306,7 +4396,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B110" s="0" t="n">
@@ -4338,7 +4428,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B111" s="0" t="n">
@@ -4370,7 +4460,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B112" s="0" t="n">
@@ -4402,7 +4492,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B113" s="0" t="n">
@@ -4434,7 +4524,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B114" s="0" t="n">
@@ -4466,7 +4556,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B115" s="0" t="n">
@@ -4498,7 +4588,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B116" s="0" t="n">
@@ -4530,7 +4620,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B117" s="0" t="n">
@@ -4562,7 +4652,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B118" s="0" t="n">
@@ -4594,7 +4684,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B119" s="0" t="n">
@@ -4626,7 +4716,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B120" s="0" t="n">
@@ -4658,7 +4748,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B121" s="0" t="n">
